--- a/Planned_Sea_Export_Shipment_Tracking.xlsx
+++ b/Planned_Sea_Export_Shipment_Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Videos\Documents\FireAI\Isa Logistics\Excel to Data Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE95356-D245-4A18-AFAA-9BE707FD41EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BECFE8-90D7-42F1-B5A9-ABA0D61A6F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4839,7 +4839,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4850,7 +4850,7 @@
     <col min="4" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.140625" customWidth="1"/>
